--- a/timesheets/calvin/timesheet_calvin.xlsx
+++ b/timesheets/calvin/timesheet_calvin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a892f57e3f60826/Desktop/Canopy_timesheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{2A48C67C-10AE-49F3-8A43-F04F23926607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E08DB5F-156E-4166-9A48-84B6808CE305}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{57B49450-76F0-4B5C-8516-4BF654591276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67F5DA6F-9704-4733-9EF0-AC4969E3107E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{329FA3FB-5A36-4B2F-8F55-C3FC1D4850ED}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -110,6 +109,9 @@
   </si>
   <si>
     <t>Calvin Stoughton</t>
+  </si>
+  <si>
+    <t>Visualization</t>
   </si>
 </sst>
 </file>
@@ -216,12 +218,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -234,6 +230,12 @@
     <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -250,6 +252,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,328 +555,1516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1A62B1-43F1-4CD5-8A7C-1691ED0F1A79}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="10"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>45559</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>45560</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>45561</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>45562</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>45563</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>45564</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <v>45565</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6">
+      <c r="H10" s="3"/>
+      <c r="I10" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6">
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
         <v>2</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
         <v>3</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="4">
         <v>2</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="4">
         <v>2</v>
       </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="10">
+        <v>45566</v>
+      </c>
+      <c r="C27" s="10">
+        <v>45567</v>
+      </c>
+      <c r="D27" s="10">
+        <v>45568</v>
+      </c>
+      <c r="E27" s="10">
+        <v>45569</v>
+      </c>
+      <c r="F27" s="10">
+        <v>45204</v>
+      </c>
+      <c r="G27" s="10">
+        <v>45205</v>
+      </c>
+      <c r="H27" s="11">
+        <v>45206</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="4">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="10">
+        <v>45573</v>
+      </c>
+      <c r="C42" s="10">
+        <v>45574</v>
+      </c>
+      <c r="D42" s="10">
+        <v>45575</v>
+      </c>
+      <c r="E42" s="10">
+        <v>45576</v>
+      </c>
+      <c r="F42" s="10">
+        <v>45211</v>
+      </c>
+      <c r="G42" s="10">
+        <v>45212</v>
+      </c>
+      <c r="H42" s="11">
+        <v>45213</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1">
+        <v>2</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+      <c r="C53" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>2</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
+        <v>3</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="10">
+        <v>45580</v>
+      </c>
+      <c r="C57" s="10">
+        <v>45581</v>
+      </c>
+      <c r="D57" s="10">
+        <v>45582</v>
+      </c>
+      <c r="E57" s="10">
+        <v>45583</v>
+      </c>
+      <c r="F57" s="10">
+        <v>45218</v>
+      </c>
+      <c r="G57" s="10">
+        <v>45219</v>
+      </c>
+      <c r="H57" s="11">
+        <v>45220</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1">
+        <v>2</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3"/>
+      <c r="I64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0</v>
+      </c>
+      <c r="C68" s="4">
+        <v>3</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
+      <c r="G68" s="4">
+        <v>3</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="I68" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
+      <c r="B71" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="8"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="10">
+        <v>45587</v>
+      </c>
+      <c r="C72" s="10">
+        <v>45588</v>
+      </c>
+      <c r="D72" s="10">
+        <v>45589</v>
+      </c>
+      <c r="E72" s="10">
+        <v>45590</v>
+      </c>
+      <c r="F72" s="10">
+        <v>45225</v>
+      </c>
+      <c r="G72" s="10">
+        <v>45226</v>
+      </c>
+      <c r="H72" s="11">
+        <v>45227</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H79" s="3"/>
+      <c r="I79" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1">
+        <v>5</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1">
+        <v>2</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0</v>
+      </c>
+      <c r="C83" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F83" s="4">
+        <v>2</v>
+      </c>
+      <c r="G83" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H83" s="4">
+        <v>0</v>
+      </c>
+      <c r="I83" s="4">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="8"/>
+      <c r="B86" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="8"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="10">
+        <v>45594</v>
+      </c>
+      <c r="C87" s="10">
+        <v>45595</v>
+      </c>
+      <c r="D87" s="10">
+        <v>45596</v>
+      </c>
+      <c r="E87" s="10">
+        <v>45597</v>
+      </c>
+      <c r="F87" s="10">
+        <v>45232</v>
+      </c>
+      <c r="G87" s="10">
+        <v>45233</v>
+      </c>
+      <c r="H87" s="11">
+        <v>45234</v>
+      </c>
+      <c r="I87" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>3</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="4">
+        <v>0</v>
+      </c>
+      <c r="C98" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+      <c r="E98" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F98" s="4">
+        <v>2</v>
+      </c>
+      <c r="G98" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H98" s="4">
+        <v>0</v>
+      </c>
+      <c r="I98" s="4">
+        <v>12.5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B71:H71"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B41:H41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timesheets/calvin/timesheet_calvin.xlsx
+++ b/timesheets/calvin/timesheet_calvin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a892f57e3f60826/Desktop/Canopy_timesheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{57B49450-76F0-4B5C-8516-4BF654591276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67F5DA6F-9704-4733-9EF0-AC4969E3107E}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="8_{57B49450-76F0-4B5C-8516-4BF654591276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C1F0EE5-ECF6-4793-B32C-5CD18E18FC57}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{329FA3FB-5A36-4B2F-8F55-C3FC1D4850ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -555,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1A62B1-43F1-4CD5-8A7C-1691ED0F1A79}">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1889,7 +1889,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="3"/>
       <c r="I89" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -1917,7 +1917,9 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
       <c r="G91" s="1"/>
       <c r="H91" s="3"/>
       <c r="I91" s="4">
@@ -1938,7 +1940,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="3"/>
       <c r="I92" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -1955,7 +1957,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="3"/>
       <c r="I93" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -1974,7 +1976,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="3"/>
       <c r="I94" s="4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -1989,11 +1991,15 @@
       <c r="E95" s="1">
         <v>3</v>
       </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
+      <c r="F95" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
       <c r="H95" s="3"/>
       <c r="I95" s="4">
-        <v>7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -2034,29 +2040,271 @@
         <v>0</v>
       </c>
       <c r="C98" s="4">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="D98" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98" s="4">
+        <v>5</v>
+      </c>
+      <c r="F98" s="4">
         <v>1.5</v>
       </c>
-      <c r="F98" s="4">
+      <c r="G98" s="4">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4">
+        <v>0</v>
+      </c>
+      <c r="I98" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="8"/>
+      <c r="B101" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="8"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="10">
+        <v>45601</v>
+      </c>
+      <c r="C102" s="10">
+        <v>45602</v>
+      </c>
+      <c r="D102" s="10">
+        <v>45603</v>
+      </c>
+      <c r="E102" s="10">
+        <v>45238</v>
+      </c>
+      <c r="F102" s="10">
+        <v>45239</v>
+      </c>
+      <c r="G102" s="10">
+        <v>45240</v>
+      </c>
+      <c r="H102" s="11">
+        <v>45241</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="4">
         <v>2</v>
       </c>
-      <c r="G98" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H98" s="4">
-        <v>0</v>
-      </c>
-      <c r="I98" s="4">
-        <v>12.5</v>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1">
+        <v>1</v>
+      </c>
+      <c r="E110" s="1">
+        <v>3</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1">
+        <v>6</v>
+      </c>
+      <c r="H110" s="3"/>
+      <c r="I110" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" s="4">
+        <v>0</v>
+      </c>
+      <c r="C113" s="4">
+        <v>2</v>
+      </c>
+      <c r="D113" s="4">
+        <v>3</v>
+      </c>
+      <c r="E113" s="4">
+        <v>4</v>
+      </c>
+      <c r="F113" s="4">
+        <v>1</v>
+      </c>
+      <c r="G113" s="4">
+        <v>6</v>
+      </c>
+      <c r="H113" s="4">
+        <v>0</v>
+      </c>
+      <c r="I113" s="4">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B101:H101"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B56:H56"/>
     <mergeCell ref="B71:H71"/>

--- a/timesheets/calvin/timesheet_calvin.xlsx
+++ b/timesheets/calvin/timesheet_calvin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a892f57e3f60826/Desktop/Canopy_timesheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="8_{57B49450-76F0-4B5C-8516-4BF654591276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C1F0EE5-ECF6-4793-B32C-5CD18E18FC57}"/>
+  <xr:revisionPtr revIDLastSave="344" documentId="8_{57B49450-76F0-4B5C-8516-4BF654591276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAE20175-F755-4974-89FB-935C1472B5AF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{329FA3FB-5A36-4B2F-8F55-C3FC1D4850ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Visualization</t>
+  </si>
+  <si>
+    <t>THANKSGIVING!!!</t>
   </si>
 </sst>
 </file>
@@ -555,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1A62B1-43F1-4CD5-8A7C-1691ED0F1A79}">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="I113" sqref="I113"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2161,12 +2164,14 @@
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="3"/>
       <c r="I106" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -2287,7 +2292,7 @@
         <v>3</v>
       </c>
       <c r="E113" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -2299,11 +2304,931 @@
         <v>0</v>
       </c>
       <c r="I113" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="8"/>
+      <c r="B116" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="8"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="10">
+        <v>45608</v>
+      </c>
+      <c r="C117" s="10">
+        <v>45609</v>
+      </c>
+      <c r="D117" s="10">
+        <v>45610</v>
+      </c>
+      <c r="E117" s="10">
+        <v>45245</v>
+      </c>
+      <c r="F117" s="10">
+        <v>45246</v>
+      </c>
+      <c r="G117" s="10">
+        <v>45247</v>
+      </c>
+      <c r="H117" s="11">
+        <v>45248</v>
+      </c>
+      <c r="I117" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1">
+        <v>1</v>
+      </c>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1">
+        <v>2</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1</v>
+      </c>
+      <c r="G125" s="1">
+        <v>1</v>
+      </c>
+      <c r="H125" s="3"/>
+      <c r="I125" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B128" s="4">
+        <v>0</v>
+      </c>
+      <c r="C128" s="4">
+        <v>2</v>
+      </c>
+      <c r="D128" s="4">
+        <v>1</v>
+      </c>
+      <c r="E128" s="4">
+        <v>3</v>
+      </c>
+      <c r="F128" s="4">
+        <v>1</v>
+      </c>
+      <c r="G128" s="4">
+        <v>1</v>
+      </c>
+      <c r="H128" s="4">
+        <v>0</v>
+      </c>
+      <c r="I128" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="8"/>
+      <c r="B131" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="8"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="10">
+        <v>45615</v>
+      </c>
+      <c r="C132" s="10">
+        <v>45616</v>
+      </c>
+      <c r="D132" s="10">
+        <v>45617</v>
+      </c>
+      <c r="E132" s="10">
+        <v>45252</v>
+      </c>
+      <c r="F132" s="10">
+        <v>45253</v>
+      </c>
+      <c r="G132" s="10">
+        <v>45254</v>
+      </c>
+      <c r="H132" s="11">
+        <v>45255</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" s="4">
+        <v>0</v>
+      </c>
+      <c r="C143" s="4">
+        <v>0</v>
+      </c>
+      <c r="D143" s="4">
+        <v>0</v>
+      </c>
+      <c r="E143" s="4">
+        <v>0</v>
+      </c>
+      <c r="F143" s="4">
+        <v>0</v>
+      </c>
+      <c r="G143" s="4">
+        <v>0</v>
+      </c>
+      <c r="H143" s="4">
+        <v>0</v>
+      </c>
+      <c r="I143" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="8"/>
+      <c r="B146" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="8"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="10">
+        <v>45622</v>
+      </c>
+      <c r="C147" s="10">
+        <v>45623</v>
+      </c>
+      <c r="D147" s="10">
+        <v>45624</v>
+      </c>
+      <c r="E147" s="10">
+        <v>45259</v>
+      </c>
+      <c r="F147" s="10">
+        <v>45260</v>
+      </c>
+      <c r="G147" s="10">
+        <v>45261</v>
+      </c>
+      <c r="H147" s="11">
+        <v>45262</v>
+      </c>
+      <c r="I147" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1">
+        <v>1</v>
+      </c>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1">
+        <v>1</v>
+      </c>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1">
+        <v>2</v>
+      </c>
+      <c r="E155" s="1">
+        <v>1</v>
+      </c>
+      <c r="F155" s="1">
+        <v>3</v>
+      </c>
+      <c r="G155" s="1">
+        <v>1</v>
+      </c>
+      <c r="H155" s="3"/>
+      <c r="I155" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B158" s="4">
+        <v>0</v>
+      </c>
+      <c r="C158" s="4">
+        <v>1</v>
+      </c>
+      <c r="D158" s="4">
+        <v>2</v>
+      </c>
+      <c r="E158" s="4">
+        <v>3</v>
+      </c>
+      <c r="F158" s="4">
+        <v>3</v>
+      </c>
+      <c r="G158" s="4">
+        <v>1</v>
+      </c>
+      <c r="H158" s="4">
+        <v>0</v>
+      </c>
+      <c r="I158" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" s="8"/>
+      <c r="B161" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="13"/>
+      <c r="I161" s="8"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="10">
+        <v>45629</v>
+      </c>
+      <c r="C162" s="10">
+        <v>45630</v>
+      </c>
+      <c r="D162" s="10">
+        <v>45631</v>
+      </c>
+      <c r="E162" s="10">
+        <v>45266</v>
+      </c>
+      <c r="F162" s="10">
+        <v>45267</v>
+      </c>
+      <c r="G162" s="10">
+        <v>45268</v>
+      </c>
+      <c r="H162" s="11">
+        <v>45269</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B173" s="4">
+        <v>0</v>
+      </c>
+      <c r="C173" s="4">
+        <v>1</v>
+      </c>
+      <c r="D173" s="4">
+        <v>0</v>
+      </c>
+      <c r="E173" s="4">
+        <v>0</v>
+      </c>
+      <c r="F173" s="4">
+        <v>0</v>
+      </c>
+      <c r="G173" s="4">
+        <v>0</v>
+      </c>
+      <c r="H173" s="4">
+        <v>0</v>
+      </c>
+      <c r="I173" s="4">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="B131:H131"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="B161:H161"/>
     <mergeCell ref="B101:H101"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B56:H56"/>

--- a/timesheets/calvin/timesheet_calvin.xlsx
+++ b/timesheets/calvin/timesheet_calvin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a892f57e3f60826/Desktop/Canopy_timesheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="344" documentId="8_{57B49450-76F0-4B5C-8516-4BF654591276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAE20175-F755-4974-89FB-935C1472B5AF}"/>
+  <xr:revisionPtr revIDLastSave="356" documentId="8_{57B49450-76F0-4B5C-8516-4BF654591276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EFD8279-C2BD-4F27-BC60-9951682E4735}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{329FA3FB-5A36-4B2F-8F55-C3FC1D4850ED}"/>
   </bookViews>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1A62B1-43F1-4CD5-8A7C-1691ED0F1A79}">
   <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="G158" sqref="G158"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3096,12 +3096,14 @@
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
+      <c r="E166" s="1">
+        <v>1</v>
+      </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="3"/>
       <c r="I166" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -3141,12 +3143,16 @@
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
+      <c r="E169" s="1">
+        <v>3</v>
+      </c>
+      <c r="F169" s="1">
+        <v>1</v>
+      </c>
       <c r="G169" s="1"/>
       <c r="H169" s="3"/>
       <c r="I169" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -3155,13 +3161,17 @@
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
+      <c r="D170" s="1">
+        <v>2</v>
+      </c>
+      <c r="E170" s="1">
+        <v>1</v>
+      </c>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="3"/>
       <c r="I170" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -3205,13 +3215,13 @@
         <v>1</v>
       </c>
       <c r="D173" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E173" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F173" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173" s="4">
         <v>0</v>
@@ -3220,16 +3230,11 @@
         <v>0</v>
       </c>
       <c r="I173" s="4">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B116:H116"/>
-    <mergeCell ref="B131:H131"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="B101:H101"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B56:H56"/>
     <mergeCell ref="B71:H71"/>
@@ -3238,6 +3243,11 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="B131:H131"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="B101:H101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timesheets/calvin/timesheet_calvin.xlsx
+++ b/timesheets/calvin/timesheet_calvin.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a892f57e3f60826/Desktop/Canopy_timesheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="356" documentId="8_{57B49450-76F0-4B5C-8516-4BF654591276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EFD8279-C2BD-4F27-BC60-9951682E4735}"/>
+  <xr:revisionPtr revIDLastSave="457" documentId="8_{57B49450-76F0-4B5C-8516-4BF654591276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CB8CB86-C27B-436A-B3FF-FA5920112B51}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{329FA3FB-5A36-4B2F-8F55-C3FC1D4850ED}"/>
+    <workbookView minimized="1" xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{329FA3FB-5A36-4B2F-8F55-C3FC1D4850ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fall" sheetId="1" r:id="rId1"/>
+    <sheet name="Spring" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -87,27 +88,6 @@
     <t>Daily Total</t>
   </si>
   <si>
-    <t>Work is  tracked in hours spent.</t>
-  </si>
-  <si>
-    <t>Total hours per week should be 12-16.</t>
-  </si>
-  <si>
-    <t>Tasks align with the project plan</t>
-  </si>
-  <si>
-    <t>Tasks will appear and fall off with each successive week</t>
-  </si>
-  <si>
-    <t>Fill this sheet out each week - keep for your records and submit a copy to your TA</t>
-  </si>
-  <si>
-    <t>If you are spending more than about 10 minutes per week filling this out, you are probably overthinking it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is intended both as an accountability tool and as validation for your estimates </t>
-  </si>
-  <si>
     <t>Calvin Stoughton</t>
   </si>
   <si>
@@ -115,6 +95,9 @@
   </si>
   <si>
     <t>THANKSGIVING!!!</t>
+  </si>
+  <si>
+    <t>Cloud</t>
   </si>
 </sst>
 </file>
@@ -257,14 +240,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -302,7 +281,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -408,7 +387,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -550,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -560,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1A62B1-43F1-4CD5-8A7C-1691ED0F1A79}">
   <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="G173" sqref="G173"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -625,25 +604,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="10">
-        <v>45559</v>
+        <v>45629</v>
       </c>
       <c r="C5" s="10">
-        <v>45560</v>
+        <v>45630</v>
       </c>
       <c r="D5" s="10">
-        <v>45561</v>
+        <v>45631</v>
       </c>
       <c r="E5" s="10">
-        <v>45562</v>
+        <v>45266</v>
       </c>
       <c r="F5" s="10">
-        <v>45563</v>
+        <v>45267</v>
       </c>
       <c r="G5" s="10">
-        <v>45564</v>
+        <v>45268</v>
       </c>
       <c r="H5" s="11">
-        <v>45565</v>
+        <v>45269</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>5</v>
@@ -722,33 +701,25 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="3"/>
       <c r="I10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="3"/>
       <c r="I11" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -758,29 +729,35 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="3"/>
       <c r="I12" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="3"/>
       <c r="I13" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -818,68 +795,54 @@
         <v>16</v>
       </c>
       <c r="B16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
         <v>2</v>
       </c>
-      <c r="D16" s="4"/>
       <c r="E16" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
       </c>
       <c r="I16" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="A19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="A21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="A22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="A24" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
-      <c r="B26" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -1745,7 +1708,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1">
@@ -1984,7 +1947,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2227,7 +2190,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2460,7 +2423,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1">
@@ -2651,7 +2614,7 @@
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -2693,7 +2656,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -2920,7 +2883,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3157,7 +3120,7 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -3235,6 +3198,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="B131:H131"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="B101:H101"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B56:H56"/>
     <mergeCell ref="B71:H71"/>
@@ -3243,11 +3211,1004 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B116:H116"/>
-    <mergeCell ref="B131:H131"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="B101:H101"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096C8C29-6F39-459A-9572-ED4ED1721CDD}">
+  <dimension ref="A1:I61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>45305</v>
+      </c>
+      <c r="C5" s="10">
+        <v>45306</v>
+      </c>
+      <c r="D5" s="10">
+        <v>45307</v>
+      </c>
+      <c r="E5" s="10">
+        <v>44943</v>
+      </c>
+      <c r="F5" s="10">
+        <v>45309</v>
+      </c>
+      <c r="G5" s="10">
+        <v>45310</v>
+      </c>
+      <c r="H5" s="11">
+        <v>45311</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="10">
+        <v>45312</v>
+      </c>
+      <c r="C20" s="10">
+        <v>45313</v>
+      </c>
+      <c r="D20" s="10">
+        <v>45314</v>
+      </c>
+      <c r="E20" s="10">
+        <v>44950</v>
+      </c>
+      <c r="F20" s="10">
+        <v>45316</v>
+      </c>
+      <c r="G20" s="10">
+        <v>45317</v>
+      </c>
+      <c r="H20" s="11">
+        <v>45318</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>6</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" s="4">
+        <v>2</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="10">
+        <v>45319</v>
+      </c>
+      <c r="C35" s="10">
+        <v>45320</v>
+      </c>
+      <c r="D35" s="10">
+        <v>45321</v>
+      </c>
+      <c r="E35" s="10">
+        <v>44957</v>
+      </c>
+      <c r="F35" s="10">
+        <v>45323</v>
+      </c>
+      <c r="G35" s="10">
+        <v>45324</v>
+      </c>
+      <c r="H35" s="11">
+        <v>45325</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4">
+        <v>4</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>5</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4">
+        <v>3</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="10">
+        <v>45326</v>
+      </c>
+      <c r="C50" s="10">
+        <v>45327</v>
+      </c>
+      <c r="D50" s="10">
+        <v>45328</v>
+      </c>
+      <c r="E50" s="10">
+        <v>44964</v>
+      </c>
+      <c r="F50" s="10">
+        <v>45330</v>
+      </c>
+      <c r="G50" s="10">
+        <v>45331</v>
+      </c>
+      <c r="H50" s="11">
+        <v>45332</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4">
+        <v>7</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>4</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+      <c r="I61" s="4">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B49:H49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timesheets/calvin/timesheet_calvin.xlsx
+++ b/timesheets/calvin/timesheet_calvin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a892f57e3f60826/Desktop/Canopy_timesheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="457" documentId="8_{57B49450-76F0-4B5C-8516-4BF654591276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CB8CB86-C27B-436A-B3FF-FA5920112B51}"/>
+  <xr:revisionPtr revIDLastSave="510" documentId="8_{57B49450-76F0-4B5C-8516-4BF654591276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{373ED865-5DA9-4C1B-9CA6-5666308B54A5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{329FA3FB-5A36-4B2F-8F55-C3FC1D4850ED}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{329FA3FB-5A36-4B2F-8F55-C3FC1D4850ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Fall" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -238,6 +238,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3198,11 +3202,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B116:H116"/>
-    <mergeCell ref="B131:H131"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="B101:H101"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B56:H56"/>
     <mergeCell ref="B71:H71"/>
@@ -3211,6 +3210,11 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="B131:H131"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="B101:H101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3218,10 +3222,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096C8C29-6F39-459A-9572-ED4ED1721CDD}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4133,11 +4137,15 @@
       <c r="E58" s="1">
         <v>1</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="F58" s="1">
+        <v>2</v>
+      </c>
+      <c r="G58" s="1">
+        <v>3</v>
+      </c>
       <c r="H58" s="3"/>
       <c r="I58" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -4189,26 +4197,724 @@
         <v>4</v>
       </c>
       <c r="F61" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G61" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H61" s="4">
         <v>0</v>
       </c>
       <c r="I61" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+      <c r="B64" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="8"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="10">
+        <v>45333</v>
+      </c>
+      <c r="C65" s="10">
+        <v>45334</v>
+      </c>
+      <c r="D65" s="10">
+        <v>45335</v>
+      </c>
+      <c r="E65" s="10">
+        <v>44971</v>
+      </c>
+      <c r="F65" s="10">
+        <v>45337</v>
+      </c>
+      <c r="G65" s="10">
+        <v>45338</v>
+      </c>
+      <c r="H65" s="11">
+        <v>45339</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1">
+        <v>5</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1">
+        <v>4</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1">
+        <v>3</v>
+      </c>
+      <c r="H73" s="3"/>
+      <c r="I73" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0</v>
+      </c>
+      <c r="C76" s="4">
+        <v>6</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
+        <v>5</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0</v>
+      </c>
+      <c r="G76" s="4">
+        <v>3</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0</v>
+      </c>
+      <c r="I76" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="8"/>
+      <c r="B79" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="8"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="10">
+        <v>45340</v>
+      </c>
+      <c r="C80" s="10">
+        <v>45341</v>
+      </c>
+      <c r="D80" s="10">
+        <v>45342</v>
+      </c>
+      <c r="E80" s="10">
+        <v>44978</v>
+      </c>
+      <c r="F80" s="10">
+        <v>45344</v>
+      </c>
+      <c r="G80" s="10">
+        <v>45345</v>
+      </c>
+      <c r="H80" s="11">
+        <v>45346</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1">
+        <v>4</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1">
+        <v>6</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0</v>
+      </c>
+      <c r="C91" s="4">
+        <v>5</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0</v>
+      </c>
+      <c r="E91" s="4">
+        <v>7</v>
+      </c>
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+      <c r="G91" s="4">
+        <v>0</v>
+      </c>
+      <c r="H91" s="4">
+        <v>0</v>
+      </c>
+      <c r="I91" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="8"/>
+      <c r="B94" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="8"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="10">
+        <v>45347</v>
+      </c>
+      <c r="C95" s="10">
+        <v>45348</v>
+      </c>
+      <c r="D95" s="10">
+        <v>45349</v>
+      </c>
+      <c r="E95" s="10">
+        <v>44985</v>
+      </c>
+      <c r="F95" s="10">
+        <v>45351</v>
+      </c>
+      <c r="G95" s="10">
+        <v>45352</v>
+      </c>
+      <c r="H95" s="11">
+        <v>45353</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1">
+        <v>4</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1">
+        <v>6</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1</v>
+      </c>
+      <c r="G103" s="1"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" s="4">
+        <v>0</v>
+      </c>
+      <c r="C106" s="4">
+        <v>5</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0</v>
+      </c>
+      <c r="E106" s="4">
+        <v>7</v>
+      </c>
+      <c r="F106" s="4">
+        <v>1</v>
+      </c>
+      <c r="G106" s="4">
+        <v>0</v>
+      </c>
+      <c r="H106" s="4">
+        <v>0</v>
+      </c>
+      <c r="I106" s="4">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B94:H94"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B49:H49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timesheets/calvin/timesheet_calvin.xlsx
+++ b/timesheets/calvin/timesheet_calvin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a892f57e3f60826/Desktop/Canopy_timesheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="510" documentId="8_{57B49450-76F0-4B5C-8516-4BF654591276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{373ED865-5DA9-4C1B-9CA6-5666308B54A5}"/>
+  <xr:revisionPtr revIDLastSave="582" documentId="8_{57B49450-76F0-4B5C-8516-4BF654591276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81028DAA-9CC8-497D-B535-85A24971D73F}"/>
   <bookViews>
     <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{329FA3FB-5A36-4B2F-8F55-C3FC1D4850ED}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -238,10 +238,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3222,10 +3218,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096C8C29-6F39-459A-9572-ED4ED1721CDD}">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="J167" sqref="J167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4904,17 +4900,949 @@
         <v>13</v>
       </c>
     </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="8"/>
+      <c r="B109" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="8"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="10">
+        <v>45354</v>
+      </c>
+      <c r="C110" s="10">
+        <v>45355</v>
+      </c>
+      <c r="D110" s="10">
+        <v>45356</v>
+      </c>
+      <c r="E110" s="10">
+        <v>44991</v>
+      </c>
+      <c r="F110" s="10">
+        <v>45358</v>
+      </c>
+      <c r="G110" s="10">
+        <v>45359</v>
+      </c>
+      <c r="H110" s="11">
+        <v>45360</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1">
+        <v>4</v>
+      </c>
+      <c r="D119" s="1">
+        <v>2</v>
+      </c>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1">
+        <v>2</v>
+      </c>
+      <c r="G119" s="1">
+        <v>2</v>
+      </c>
+      <c r="H119" s="3"/>
+      <c r="I119" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121" s="4">
+        <v>0</v>
+      </c>
+      <c r="C121" s="4">
+        <v>5</v>
+      </c>
+      <c r="D121" s="4">
+        <v>2</v>
+      </c>
+      <c r="E121" s="4">
+        <v>1</v>
+      </c>
+      <c r="F121" s="4">
+        <v>2</v>
+      </c>
+      <c r="G121" s="4">
+        <v>2</v>
+      </c>
+      <c r="H121" s="4">
+        <v>0</v>
+      </c>
+      <c r="I121" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="8"/>
+      <c r="B124" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="8"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="10">
+        <v>45361</v>
+      </c>
+      <c r="C125" s="10">
+        <v>45362</v>
+      </c>
+      <c r="D125" s="10">
+        <v>45363</v>
+      </c>
+      <c r="E125" s="10">
+        <v>44998</v>
+      </c>
+      <c r="F125" s="10">
+        <v>45365</v>
+      </c>
+      <c r="G125" s="10">
+        <v>45366</v>
+      </c>
+      <c r="H125" s="11">
+        <v>45367</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1">
+        <v>3</v>
+      </c>
+      <c r="D134" s="1">
+        <v>4</v>
+      </c>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1">
+        <v>1</v>
+      </c>
+      <c r="G134" s="1">
+        <v>2</v>
+      </c>
+      <c r="H134" s="3"/>
+      <c r="I134" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" s="4">
+        <v>0</v>
+      </c>
+      <c r="C136" s="4">
+        <v>4</v>
+      </c>
+      <c r="D136" s="4">
+        <v>4</v>
+      </c>
+      <c r="E136" s="4">
+        <v>1</v>
+      </c>
+      <c r="F136" s="4">
+        <v>2</v>
+      </c>
+      <c r="G136" s="4">
+        <v>2</v>
+      </c>
+      <c r="H136" s="4">
+        <v>0</v>
+      </c>
+      <c r="I136" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="8"/>
+      <c r="B139" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="8"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="10">
+        <v>45368</v>
+      </c>
+      <c r="C140" s="10">
+        <v>45369</v>
+      </c>
+      <c r="D140" s="10">
+        <v>45370</v>
+      </c>
+      <c r="E140" s="10">
+        <v>45005</v>
+      </c>
+      <c r="F140" s="10">
+        <v>45372</v>
+      </c>
+      <c r="G140" s="10">
+        <v>45373</v>
+      </c>
+      <c r="H140" s="11">
+        <v>45374</v>
+      </c>
+      <c r="I140" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1">
+        <v>1</v>
+      </c>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1">
+        <v>1</v>
+      </c>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1">
+        <v>5</v>
+      </c>
+      <c r="D149" s="1">
+        <v>2</v>
+      </c>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1">
+        <v>1</v>
+      </c>
+      <c r="G149" s="1"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B151" s="4">
+        <v>0</v>
+      </c>
+      <c r="C151" s="4">
+        <v>6</v>
+      </c>
+      <c r="D151" s="4">
+        <v>2</v>
+      </c>
+      <c r="E151" s="4">
+        <v>1</v>
+      </c>
+      <c r="F151" s="4">
+        <v>2</v>
+      </c>
+      <c r="G151" s="4">
+        <v>0</v>
+      </c>
+      <c r="H151" s="4">
+        <v>0</v>
+      </c>
+      <c r="I151" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="8"/>
+      <c r="B154" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="8"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="10">
+        <v>45382</v>
+      </c>
+      <c r="C155" s="10">
+        <v>45383</v>
+      </c>
+      <c r="D155" s="10">
+        <v>45384</v>
+      </c>
+      <c r="E155" s="10">
+        <v>45019</v>
+      </c>
+      <c r="F155" s="10">
+        <v>45386</v>
+      </c>
+      <c r="G155" s="10">
+        <v>45387</v>
+      </c>
+      <c r="H155" s="11">
+        <v>45388</v>
+      </c>
+      <c r="I155" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1">
+        <v>1</v>
+      </c>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1">
+        <v>5</v>
+      </c>
+      <c r="D164" s="1">
+        <v>4</v>
+      </c>
+      <c r="E164" s="1">
+        <v>4</v>
+      </c>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B166" s="4">
+        <v>0</v>
+      </c>
+      <c r="C166" s="4">
+        <v>6</v>
+      </c>
+      <c r="D166" s="4">
+        <v>4</v>
+      </c>
+      <c r="E166" s="4">
+        <v>5</v>
+      </c>
+      <c r="F166" s="4">
+        <v>0</v>
+      </c>
+      <c r="G166" s="4">
+        <v>0</v>
+      </c>
+      <c r="H166" s="4">
+        <v>0</v>
+      </c>
+      <c r="I166" s="4">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="B94:H94"/>
+  <mergeCells count="13">
+    <mergeCell ref="B124:H124"/>
+    <mergeCell ref="B139:H139"/>
+    <mergeCell ref="B154:H154"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B109:H109"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B94:H94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timesheets/calvin/timesheet_calvin.xlsx
+++ b/timesheets/calvin/timesheet_calvin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a892f57e3f60826/Desktop/Canopy_timesheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="582" documentId="8_{57B49450-76F0-4B5C-8516-4BF654591276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81028DAA-9CC8-497D-B535-85A24971D73F}"/>
+  <xr:revisionPtr revIDLastSave="605" documentId="8_{57B49450-76F0-4B5C-8516-4BF654591276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66C8BADA-A5AC-45B7-B3E4-6B5BCEEE76F2}"/>
   <bookViews>
     <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{329FA3FB-5A36-4B2F-8F55-C3FC1D4850ED}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -238,6 +238,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3198,6 +3202,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="B131:H131"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="B101:H101"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B56:H56"/>
     <mergeCell ref="B71:H71"/>
@@ -3206,11 +3215,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B116:H116"/>
-    <mergeCell ref="B131:H131"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="B101:H101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3218,10 +3222,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096C8C29-6F39-459A-9572-ED4ED1721CDD}">
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="J167" sqref="J167"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="J181" sqref="J181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5828,8 +5832,244 @@
         <v>15</v>
       </c>
     </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="8"/>
+      <c r="B169" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="13"/>
+      <c r="I169" s="8"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="10">
+        <v>45389</v>
+      </c>
+      <c r="C170" s="10">
+        <v>45390</v>
+      </c>
+      <c r="D170" s="10">
+        <v>45391</v>
+      </c>
+      <c r="E170" s="10">
+        <v>45026</v>
+      </c>
+      <c r="F170" s="10">
+        <v>45393</v>
+      </c>
+      <c r="G170" s="10">
+        <v>45394</v>
+      </c>
+      <c r="H170" s="11">
+        <v>45395</v>
+      </c>
+      <c r="I170" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1">
+        <v>1</v>
+      </c>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1">
+        <v>1</v>
+      </c>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1">
+        <v>4</v>
+      </c>
+      <c r="F179" s="1">
+        <v>3</v>
+      </c>
+      <c r="G179" s="1">
+        <v>5</v>
+      </c>
+      <c r="H179" s="3">
+        <v>3</v>
+      </c>
+      <c r="I179" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B181" s="4">
+        <v>0</v>
+      </c>
+      <c r="C181" s="4">
+        <v>2</v>
+      </c>
+      <c r="D181" s="4">
+        <v>0</v>
+      </c>
+      <c r="E181" s="4">
+        <v>5</v>
+      </c>
+      <c r="F181" s="4">
+        <v>3</v>
+      </c>
+      <c r="G181" s="4">
+        <v>5</v>
+      </c>
+      <c r="H181" s="4">
+        <v>3</v>
+      </c>
+      <c r="I181" s="4">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="B169:H169"/>
     <mergeCell ref="B124:H124"/>
     <mergeCell ref="B139:H139"/>
     <mergeCell ref="B154:H154"/>

--- a/timesheets/calvin/timesheet_calvin.xlsx
+++ b/timesheets/calvin/timesheet_calvin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a892f57e3f60826/Desktop/Canopy_timesheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="605" documentId="8_{57B49450-76F0-4B5C-8516-4BF654591276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66C8BADA-A5AC-45B7-B3E4-6B5BCEEE76F2}"/>
+  <xr:revisionPtr revIDLastSave="648" documentId="8_{57B49450-76F0-4B5C-8516-4BF654591276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CC335E7-6C4F-457B-A333-F04D6BCADCD9}"/>
   <bookViews>
     <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{329FA3FB-5A36-4B2F-8F55-C3FC1D4850ED}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Cloud</t>
+  </si>
+  <si>
+    <t>Project Expo</t>
   </si>
 </sst>
 </file>
@@ -3202,11 +3205,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B116:H116"/>
-    <mergeCell ref="B131:H131"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="B101:H101"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B56:H56"/>
     <mergeCell ref="B71:H71"/>
@@ -3215,6 +3213,11 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="B131:H131"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="B101:H101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3222,10 +3225,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096C8C29-6F39-459A-9572-ED4ED1721CDD}">
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:I211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="J181" sqref="J181"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="I211" sqref="I211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6067,8 +6070,476 @@
         <v>18</v>
       </c>
     </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" s="8"/>
+      <c r="B184" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" s="13"/>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="13"/>
+      <c r="G184" s="13"/>
+      <c r="H184" s="13"/>
+      <c r="I184" s="8"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" s="10">
+        <v>45396</v>
+      </c>
+      <c r="C185" s="10">
+        <v>45397</v>
+      </c>
+      <c r="D185" s="10">
+        <v>45398</v>
+      </c>
+      <c r="E185" s="10">
+        <v>45033</v>
+      </c>
+      <c r="F185" s="10">
+        <v>45400</v>
+      </c>
+      <c r="G185" s="10">
+        <v>45401</v>
+      </c>
+      <c r="H185" s="11">
+        <v>45402</v>
+      </c>
+      <c r="I185" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1">
+        <v>1</v>
+      </c>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1">
+        <v>1</v>
+      </c>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1">
+        <v>2</v>
+      </c>
+      <c r="G193" s="1">
+        <v>5</v>
+      </c>
+      <c r="H193" s="3"/>
+      <c r="I193" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1">
+        <v>4</v>
+      </c>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B196" s="4">
+        <v>0</v>
+      </c>
+      <c r="C196" s="4">
+        <v>2</v>
+      </c>
+      <c r="D196" s="4">
+        <v>0</v>
+      </c>
+      <c r="E196" s="4">
+        <v>5</v>
+      </c>
+      <c r="F196" s="4">
+        <v>2</v>
+      </c>
+      <c r="G196" s="4">
+        <v>5</v>
+      </c>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" s="8"/>
+      <c r="B199" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" s="13"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="13"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="13"/>
+      <c r="I199" s="8"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200" s="10">
+        <v>45403</v>
+      </c>
+      <c r="C200" s="10">
+        <v>45404</v>
+      </c>
+      <c r="D200" s="10">
+        <v>45405</v>
+      </c>
+      <c r="E200" s="10">
+        <v>45040</v>
+      </c>
+      <c r="F200" s="10">
+        <v>45407</v>
+      </c>
+      <c r="G200" s="10">
+        <v>45408</v>
+      </c>
+      <c r="H200" s="11">
+        <v>45409</v>
+      </c>
+      <c r="I200" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1">
+        <v>1</v>
+      </c>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1">
+        <v>1</v>
+      </c>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1">
+        <v>2</v>
+      </c>
+      <c r="E208" s="1">
+        <v>4</v>
+      </c>
+      <c r="F208" s="1">
+        <v>2</v>
+      </c>
+      <c r="G208" s="1"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1">
+        <v>1</v>
+      </c>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1">
+        <v>7</v>
+      </c>
+      <c r="H210" s="3"/>
+      <c r="I210" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B211" s="4">
+        <v>0</v>
+      </c>
+      <c r="C211" s="4">
+        <v>2</v>
+      </c>
+      <c r="D211" s="4">
+        <v>2</v>
+      </c>
+      <c r="E211" s="4">
+        <v>5</v>
+      </c>
+      <c r="F211" s="4">
+        <v>2</v>
+      </c>
+      <c r="G211" s="4">
+        <v>7</v>
+      </c>
+      <c r="H211" s="4">
+        <v>0</v>
+      </c>
+      <c r="I211" s="4">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="B184:H184"/>
+    <mergeCell ref="B199:H199"/>
     <mergeCell ref="B169:H169"/>
     <mergeCell ref="B124:H124"/>
     <mergeCell ref="B139:H139"/>
